--- a/Documentation/Experiments/VoiceRecognition.xlsx
+++ b/Documentation/Experiments/VoiceRecognition.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="29">
   <si>
     <t>Iteration</t>
   </si>
@@ -93,17 +93,33 @@
     <t>Run 4</t>
   </si>
   <si>
-    <t>Diff(%)</t>
+    <t>Total Results</t>
   </si>
   <si>
-    <t>Total Results</t>
+    <t>Diff in request time between local and not pre-processed</t>
+  </si>
+  <si>
+    <t>Diff in request time between local and pre-processed</t>
+  </si>
+  <si>
+    <t>Diff in local CPU use between local and not pre-processed</t>
+  </si>
+  <si>
+    <t>Diff in local CPU use between local and pre-processed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,10 +145,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -149,12 +166,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -167,6 +195,4155 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Client CPU use</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Local execution</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Basic Word Bank'!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27.688799999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-819D-42CF-AC10-64C7B822514F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Remote execution without pre-processing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-E253-4146-96C3-E1E7233D379E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Basic Word Bank'!$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.4551999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-819D-42CF-AC10-64C7B822514F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Remote execution with pre-processing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Basic Word Bank'!$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.0398000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-819D-42CF-AC10-64C7B822514F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="903780607"/>
+        <c:axId val="911849919"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="903780607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="911849919"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="911849919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>CPU Use(%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="903780607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Request Execution Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Local execution</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Basic Word Bank'!$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5306739999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7676-49C7-8E64-7F9FDBC4F87E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Remote execution without pre-processing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Basic Word Bank'!$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0757000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7676-49C7-8E64-7F9FDBC4F87E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Remote execution with pre-processing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Basic Word Bank'!$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.8172799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7676-49C7-8E64-7F9FDBC4F87E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="914376799"/>
+        <c:axId val="1019122543"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="914376799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1019122543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1019122543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Request Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914376799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Edge CPU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> use</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Edge without pre-processing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Basic Word Bank'!$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.1322000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0348-48EB-B3D1-EB1BDD91840C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Edge with pre-processing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Basic Word Bank'!$T$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21.932599999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0348-48EB-B3D1-EB1BDD91840C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="852073759"/>
+        <c:axId val="1018764543"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="852073759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1018764543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1018764543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>CPU use (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="852073759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Network Utalisation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bytes data centre received without pre-processing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Basic Word Bank'!$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>246051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4172-44E9-A50B-D204BFB90B8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Bytes data centre received with pre-processing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Basic Word Bank'!$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4172-44E9-A50B-D204BFB90B8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Bytes data centre sent without pre-processing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Basic Word Bank'!$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4172-44E9-A50B-D204BFB90B8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Bytes data centre sent with pre-processing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Basic Word Bank'!$Z$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4172-44E9-A50B-D204BFB90B8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="316046736"/>
+        <c:axId val="237509248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="316046736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="237509248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="237509248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Bytes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316046736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E270D40D-10BB-41A8-8D58-2B86E1244DE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28345F3E-F9B3-47A0-8ADF-8E7A373D6329}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC2F792F-F6BA-4CD2-AD78-FF4F7AEED045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21BF4D0E-D207-46F2-9841-EE5404F81DB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,7 +4646,7 @@
   <dimension ref="A1:AI94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K7" sqref="K7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,23 +4689,22 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -545,13 +4721,13 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -568,13 +4744,15 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -592,38 +4770,38 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -901,10 +5079,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10">
+        <f>(D8-G8)/G8</f>
+        <v>0.42295621455796201</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10">
+        <f>(D8-R8)/R8</f>
+        <v>-0.15771152491635848</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="9"/>
+      <c r="T12" s="10">
+        <f>(H8-B8)/B8</f>
+        <v>-0.80298171101672866</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W12" s="9"/>
+      <c r="X12" s="10">
+        <f>(S8-B8)/B8</f>
+        <v>-0.89021553841264334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="10"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="10"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="10"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="10"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -929,36 +5172,36 @@
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="G17" s="4" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="G17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="R17" s="4" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="R17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
@@ -1829,83 +6072,83 @@
         <v>245804</v>
       </c>
       <c r="G29">
-        <f>AVERAGE(G19:G28)</f>
+        <f t="shared" ref="G29:P29" si="3">AVERAGE(G19:G28)</f>
         <v>0.8589</v>
       </c>
       <c r="H29">
-        <f>AVERAGE(H19:H28)</f>
+        <f t="shared" si="3"/>
         <v>4.7629999999999999</v>
       </c>
       <c r="I29">
-        <f>AVERAGE(I19:I28)</f>
+        <f t="shared" si="3"/>
         <v>2.6740000000000004</v>
       </c>
       <c r="J29">
-        <f>AVERAGE(J19:J28)</f>
+        <f t="shared" si="3"/>
         <v>31.568999999999996</v>
       </c>
       <c r="K29">
-        <f>AVERAGE(K19:K28)</f>
+        <f t="shared" si="3"/>
         <v>0.14799999999999999</v>
       </c>
       <c r="L29">
-        <f>AVERAGE(L19:L28)</f>
+        <f t="shared" si="3"/>
         <v>0.54</v>
       </c>
       <c r="M29">
-        <f>AVERAGE(M19:M28)</f>
+        <f t="shared" si="3"/>
         <v>6.3469999999999995</v>
       </c>
       <c r="N29">
-        <f>AVERAGE(N19:N28)</f>
+        <f t="shared" si="3"/>
         <v>246051</v>
       </c>
       <c r="O29">
-        <f>AVERAGE(O19:O28)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="P29">
-        <f>AVERAGE(P19:P28)</f>
+        <f t="shared" si="3"/>
         <v>245804</v>
       </c>
       <c r="R29">
-        <f>AVERAGE(R19:R28)</f>
+        <f t="shared" ref="R29:AA29" si="4">AVERAGE(R19:R28)</f>
         <v>2.0183999999999997</v>
       </c>
       <c r="S29">
-        <f>AVERAGE(S19:S28)</f>
+        <f t="shared" si="4"/>
         <v>2.5870000000000002</v>
       </c>
       <c r="T29">
-        <f>AVERAGE(T19:T28)</f>
+        <f t="shared" si="4"/>
         <v>19.770000000000003</v>
       </c>
       <c r="U29">
-        <f>AVERAGE(U19:U28)</f>
+        <f t="shared" si="4"/>
         <v>50.712600000000002</v>
       </c>
       <c r="V29">
-        <f>AVERAGE(V19:V28)</f>
+        <f t="shared" si="4"/>
         <v>0.14000000000000004</v>
       </c>
       <c r="W29">
-        <f>AVERAGE(W19:W28)</f>
+        <f t="shared" si="4"/>
         <v>0.54</v>
       </c>
       <c r="X29">
-        <f>AVERAGE(X19:X28)</f>
+        <f t="shared" si="4"/>
         <v>6.2639999999999993</v>
       </c>
       <c r="Y29">
-        <f>AVERAGE(Y19:Y28)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="Z29">
-        <f>AVERAGE(Z19:Z28)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="AA29">
-        <f>AVERAGE(AA19:AA28)</f>
+        <f t="shared" si="4"/>
         <v>245804</v>
       </c>
     </row>
@@ -1921,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:AA30" si="3">STDEV(D19:D28)</f>
+        <f t="shared" ref="D30:AA30" si="5">STDEV(D19:D28)</f>
         <v>2.6418848490340343E-2</v>
       </c>
       <c r="E30">
@@ -1929,27 +6172,27 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.1709178313119009E-2</v>
       </c>
       <c r="H30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.1075211874511592</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4935208215637452</v>
       </c>
       <c r="J30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.3984882503979907</v>
       </c>
       <c r="K30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.2163702135578308E-3</v>
       </c>
       <c r="L30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M30">
@@ -1957,38 +6200,38 @@
         <v>5.6578362570077291E-2</v>
       </c>
       <c r="N30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.1612498122559197E-2</v>
       </c>
       <c r="S30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0859511959567978</v>
       </c>
       <c r="T30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.85011110384989697</v>
       </c>
       <c r="U30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25.96750706470598</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X30">
@@ -1996,15 +6239,15 @@
         <v>5.1639777949431124E-3</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2054,36 +6297,36 @@
       <c r="A33" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="G33" s="4" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="G33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="R33" s="4" t="s">
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="R33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
@@ -2934,99 +7177,99 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <f t="shared" ref="B45" si="4">AVERAGE(B35:B44)</f>
+        <f t="shared" ref="B45" si="6">AVERAGE(B35:B44)</f>
         <v>27.927999999999997</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45" si="5">AVERAGE(C35:C44)</f>
+        <f t="shared" ref="C45" si="7">AVERAGE(C35:C44)</f>
         <v>0.14000000000000004</v>
       </c>
       <c r="D45">
-        <f t="shared" ref="D45" si="6">AVERAGE(D35:D44)</f>
+        <f t="shared" ref="D45" si="8">AVERAGE(D35:D44)</f>
         <v>1.4284700000000001</v>
       </c>
       <c r="E45">
-        <f t="shared" ref="E45" si="7">AVERAGE(E35:E44)</f>
+        <f t="shared" ref="E45" si="9">AVERAGE(E35:E44)</f>
         <v>245804</v>
       </c>
       <c r="G45">
-        <f>AVERAGE(G35:G44)</f>
+        <f t="shared" ref="G45:P45" si="10">AVERAGE(G35:G44)</f>
         <v>0.79889999999999994</v>
       </c>
       <c r="H45">
-        <f>AVERAGE(H35:H44)</f>
+        <f t="shared" si="10"/>
         <v>5.1840000000000002</v>
       </c>
       <c r="I45">
-        <f>AVERAGE(I35:I44)</f>
+        <f t="shared" si="10"/>
         <v>2.8250000000000002</v>
       </c>
       <c r="J45">
-        <f>AVERAGE(J35:J44)</f>
+        <f t="shared" si="10"/>
         <v>26.929000000000002</v>
       </c>
       <c r="K45">
-        <f>AVERAGE(K35:K44)</f>
+        <f t="shared" si="10"/>
         <v>0.14600000000000005</v>
       </c>
       <c r="L45">
-        <f>AVERAGE(L35:L44)</f>
+        <f t="shared" si="10"/>
         <v>0.54</v>
       </c>
       <c r="M45">
-        <f>AVERAGE(M35:M44)</f>
+        <f t="shared" si="10"/>
         <v>6.3339999999999996</v>
       </c>
       <c r="N45">
-        <f>AVERAGE(N35:N44)</f>
+        <f t="shared" si="10"/>
         <v>246051</v>
       </c>
       <c r="O45">
-        <f>AVERAGE(O35:O44)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="P45">
-        <f>AVERAGE(P35:P44)</f>
+        <f t="shared" si="10"/>
         <v>245804</v>
       </c>
       <c r="R45">
-        <f>AVERAGE(R35:R44)</f>
+        <f t="shared" ref="R45:AA45" si="11">AVERAGE(R35:R44)</f>
         <v>1.7344999999999999</v>
       </c>
       <c r="S45">
-        <f>AVERAGE(S35:S44)</f>
+        <f t="shared" si="11"/>
         <v>3.2709999999999999</v>
       </c>
       <c r="T45">
-        <f>AVERAGE(T35:T44)</f>
+        <f t="shared" si="11"/>
         <v>22.884999999999998</v>
       </c>
       <c r="U45">
-        <f>AVERAGE(U35:U44)</f>
+        <f t="shared" si="11"/>
         <v>35.563000000000002</v>
       </c>
       <c r="V45">
-        <f>AVERAGE(V35:V44)</f>
+        <f t="shared" si="11"/>
         <v>0.14000000000000004</v>
       </c>
       <c r="W45">
-        <f>AVERAGE(W35:W44)</f>
+        <f t="shared" si="11"/>
         <v>0.54</v>
       </c>
       <c r="X45">
-        <f>AVERAGE(X35:X44)</f>
+        <f t="shared" si="11"/>
         <v>6.3309999999999995</v>
       </c>
       <c r="Y45">
-        <f>AVERAGE(Y35:Y44)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="Z45">
-        <f>AVERAGE(Z35:Z44)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="AA45">
-        <f>AVERAGE(AA35:AA44)</f>
+        <f t="shared" si="11"/>
         <v>245804</v>
       </c>
     </row>
@@ -3042,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <f t="shared" ref="D46:AA46" si="8">STDEV(D35:D44)</f>
+        <f t="shared" ref="D46" si="12">STDEV(D35:D44)</f>
         <v>0.44821506259086535</v>
       </c>
       <c r="E46">
@@ -3050,27 +7293,27 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46:AA46" si="9">STDEV(G35:G44)</f>
+        <f t="shared" ref="G46:L46" si="13">STDEV(G35:G44)</f>
         <v>8.6621077753114589E-2</v>
       </c>
       <c r="H46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5208126482611533</v>
       </c>
       <c r="I46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.341949245604235</v>
       </c>
       <c r="J46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.234345030725343</v>
       </c>
       <c r="K46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5.163977794943213E-3</v>
       </c>
       <c r="L46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M46">
@@ -3078,38 +7321,38 @@
         <v>2.170509412813296E-2</v>
       </c>
       <c r="N46">
-        <f t="shared" ref="N46:AA46" si="10">STDEV(N35:N44)</f>
+        <f t="shared" ref="N46:P46" si="14">STDEV(N35:N44)</f>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R46">
-        <f t="shared" ref="R46:AA46" si="11">STDEV(R35:R44)</f>
+        <f t="shared" ref="R46:U46" si="15">STDEV(R35:R44)</f>
         <v>5.5733991224187228E-2</v>
       </c>
       <c r="S46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.8113558457685779</v>
       </c>
       <c r="T46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.81975944981168447</v>
       </c>
       <c r="U46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>13.870916856662523</v>
       </c>
       <c r="V46">
         <v>0</v>
       </c>
       <c r="W46">
-        <f t="shared" ref="W46:AA46" si="12">STDEV(W35:W44)</f>
+        <f t="shared" ref="W46" si="16">STDEV(W35:W44)</f>
         <v>0</v>
       </c>
       <c r="X46">
@@ -3117,15 +7360,15 @@
         <v>4.0400770069668503E-2</v>
       </c>
       <c r="Y46">
-        <f t="shared" ref="Y46:AA46" si="13">STDEV(Y35:Y44)</f>
+        <f t="shared" ref="Y46:AA46" si="17">STDEV(Y35:Y44)</f>
         <v>0</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -3152,36 +7395,36 @@
       <c r="A49" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="G49" s="4" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="G49" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="R49" s="4" t="s">
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="R49" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
@@ -4032,99 +8275,99 @@
         <v>1</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61" si="14">AVERAGE(B51:B60)</f>
+        <f t="shared" ref="B61" si="18">AVERAGE(B51:B60)</f>
         <v>27.467999999999996</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61" si="15">AVERAGE(C51:C60)</f>
+        <f t="shared" ref="C61" si="19">AVERAGE(C51:C60)</f>
         <v>0.14999999999999997</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61" si="16">AVERAGE(D51:D60)</f>
+        <f t="shared" ref="D61" si="20">AVERAGE(D51:D60)</f>
         <v>1.5436999999999999</v>
       </c>
       <c r="E61">
-        <f t="shared" ref="E61" si="17">AVERAGE(E51:E60)</f>
+        <f t="shared" ref="E61" si="21">AVERAGE(E51:E60)</f>
         <v>245804</v>
       </c>
       <c r="G61">
-        <f>AVERAGE(G51:G60)</f>
+        <f t="shared" ref="G61:P61" si="22">AVERAGE(G51:G60)</f>
         <v>2.1640000000000001</v>
       </c>
       <c r="H61">
-        <f>AVERAGE(H51:H60)</f>
+        <f t="shared" si="22"/>
         <v>3.508</v>
       </c>
       <c r="I61">
-        <f>AVERAGE(I51:I60)</f>
+        <f t="shared" si="22"/>
         <v>1.4019999999999999</v>
       </c>
       <c r="J61">
-        <f>AVERAGE(J51:J60)</f>
+        <f t="shared" si="22"/>
         <v>20.582999999999998</v>
       </c>
       <c r="K61">
-        <f>AVERAGE(K51:K60)</f>
+        <f t="shared" si="22"/>
         <v>0.14000000000000004</v>
       </c>
       <c r="L61">
-        <f>AVERAGE(L51:L60)</f>
+        <f t="shared" si="22"/>
         <v>0.54</v>
       </c>
       <c r="M61">
-        <f>AVERAGE(M51:M60)</f>
+        <f t="shared" si="22"/>
         <v>5.8970000000000002</v>
       </c>
       <c r="N61">
-        <f>AVERAGE(N51:N60)</f>
+        <f t="shared" si="22"/>
         <v>246051</v>
       </c>
       <c r="O61">
-        <f>AVERAGE(O51:O60)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="P61">
-        <f>AVERAGE(P51:P60)</f>
+        <f t="shared" si="22"/>
         <v>245804</v>
       </c>
       <c r="R61">
-        <f>AVERAGE(R51:R60)</f>
+        <f t="shared" ref="R61:AA61" si="23">AVERAGE(R51:R60)</f>
         <v>1.7942</v>
       </c>
       <c r="S61">
-        <f>AVERAGE(S51:S60)</f>
+        <f t="shared" si="23"/>
         <v>3.21</v>
       </c>
       <c r="T61">
-        <f>AVERAGE(T51:T60)</f>
+        <f t="shared" si="23"/>
         <v>22.158999999999999</v>
       </c>
       <c r="U61">
-        <f>AVERAGE(U51:U60)</f>
+        <f t="shared" si="23"/>
         <v>41.980000000000004</v>
       </c>
       <c r="V61">
-        <f>AVERAGE(V51:V60)</f>
+        <f t="shared" si="23"/>
         <v>0.14000000000000004</v>
       </c>
       <c r="W61">
-        <f>AVERAGE(W51:W60)</f>
+        <f t="shared" si="23"/>
         <v>0.54</v>
       </c>
       <c r="X61">
-        <f>AVERAGE(X51:X60)</f>
+        <f t="shared" si="23"/>
         <v>6.0370000000000008</v>
       </c>
       <c r="Y61">
-        <f>AVERAGE(Y51:Y60)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="Z61">
-        <f>AVERAGE(Z51:Z60)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="AA61">
-        <f>AVERAGE(AA51:AA60)</f>
+        <f t="shared" si="23"/>
         <v>245804</v>
       </c>
     </row>
@@ -4140,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <f t="shared" ref="D62:AA62" si="18">STDEV(D51:D60)</f>
+        <f t="shared" ref="D62" si="24">STDEV(D51:D60)</f>
         <v>3.4467537061866033E-2</v>
       </c>
       <c r="E62">
@@ -4148,27 +8391,27 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <f t="shared" ref="G62:AA62" si="19">STDEV(G51:G60)</f>
+        <f t="shared" ref="G62:L62" si="25">STDEV(G51:G60)</f>
         <v>0.8555102441103658</v>
       </c>
       <c r="H62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.5341360217833793</v>
       </c>
       <c r="I62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.1723082643514315</v>
       </c>
       <c r="J62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>5.857418942389792</v>
       </c>
       <c r="K62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2.925694557147251E-17</v>
       </c>
       <c r="L62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M62">
@@ -4176,38 +8419,38 @@
         <v>0.25210447569741135</v>
       </c>
       <c r="N62">
-        <f t="shared" ref="N62:AA62" si="20">STDEV(N51:N60)</f>
+        <f t="shared" ref="N62:P62" si="26">STDEV(N51:N60)</f>
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R62">
-        <f t="shared" ref="R62:AA62" si="21">STDEV(R51:R60)</f>
+        <f t="shared" ref="R62:U62" si="27">STDEV(R51:R60)</f>
         <v>9.0605126173351133E-2</v>
       </c>
       <c r="S62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>2.3110315157233718</v>
       </c>
       <c r="T62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1.1653559303682479</v>
       </c>
       <c r="U62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>12.912768013783007</v>
       </c>
       <c r="V62">
         <v>0</v>
       </c>
       <c r="W62">
-        <f t="shared" ref="W62:AA62" si="22">STDEV(W51:W60)</f>
+        <f t="shared" ref="W62" si="28">STDEV(W51:W60)</f>
         <v>0</v>
       </c>
       <c r="X62">
@@ -4215,15 +8458,15 @@
         <v>8.2327260234856744E-3</v>
       </c>
       <c r="Y62">
-        <f t="shared" ref="Y62:AA62" si="23">STDEV(Y51:Y60)</f>
+        <f t="shared" ref="Y62:AA62" si="29">STDEV(Y51:Y60)</f>
         <v>0</v>
       </c>
       <c r="Z62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -4250,36 +8493,36 @@
       <c r="A65" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="G65" s="4" t="s">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="G65" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="R65" s="4" t="s">
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="R65" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
-      <c r="AA65" s="4"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
@@ -5130,99 +9373,99 @@
         <v>1</v>
       </c>
       <c r="B77">
-        <f t="shared" ref="B77" si="24">AVERAGE(B67:B76)</f>
+        <f t="shared" ref="B77" si="30">AVERAGE(B67:B76)</f>
         <v>27.506999999999998</v>
       </c>
       <c r="C77">
-        <f t="shared" ref="C77" si="25">AVERAGE(C67:C76)</f>
+        <f t="shared" ref="C77" si="31">AVERAGE(C67:C76)</f>
         <v>0.14999999999999997</v>
       </c>
       <c r="D77">
-        <f t="shared" ref="D77" si="26">AVERAGE(D67:D76)</f>
+        <f t="shared" ref="D77" si="32">AVERAGE(D67:D76)</f>
         <v>1.5520999999999998</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77" si="27">AVERAGE(E67:E76)</f>
+        <f t="shared" ref="E77" si="33">AVERAGE(E67:E76)</f>
         <v>245804</v>
       </c>
       <c r="G77">
-        <f>AVERAGE(G67:G76)</f>
+        <f t="shared" ref="G77:P77" si="34">AVERAGE(G67:G76)</f>
         <v>0.86970000000000014</v>
       </c>
       <c r="H77">
-        <f>AVERAGE(H67:H76)</f>
+        <f t="shared" si="34"/>
         <v>6.6369999999999987</v>
       </c>
       <c r="I77">
-        <f>AVERAGE(I67:I76)</f>
+        <f t="shared" si="34"/>
         <v>1.2429999999999999</v>
       </c>
       <c r="J77">
-        <f>AVERAGE(J67:J76)</f>
+        <f t="shared" si="34"/>
         <v>34.122</v>
       </c>
       <c r="K77">
-        <f>AVERAGE(K67:K76)</f>
+        <f t="shared" si="34"/>
         <v>0.14000000000000004</v>
       </c>
       <c r="L77">
-        <f>AVERAGE(L67:L76)</f>
+        <f t="shared" si="34"/>
         <v>0.54</v>
       </c>
       <c r="M77">
-        <f>AVERAGE(M67:M76)</f>
+        <f t="shared" si="34"/>
         <v>5.7389999999999999</v>
       </c>
       <c r="N77">
-        <f>AVERAGE(N67:N76)</f>
+        <f t="shared" si="34"/>
         <v>246051</v>
       </c>
       <c r="O77">
-        <f>AVERAGE(O67:O76)</f>
+        <f t="shared" si="34"/>
         <v>7</v>
       </c>
       <c r="P77">
-        <f>AVERAGE(P67:P76)</f>
+        <f t="shared" si="34"/>
         <v>245804</v>
       </c>
       <c r="R77">
-        <f>AVERAGE(R67:R76)</f>
+        <f t="shared" ref="R77:AA77" si="35">AVERAGE(R67:R76)</f>
         <v>1.7772999999999999</v>
       </c>
       <c r="S77">
-        <f>AVERAGE(S67:S76)</f>
+        <f t="shared" si="35"/>
         <v>3.4199999999999995</v>
       </c>
       <c r="T77">
-        <f>AVERAGE(T67:T76)</f>
+        <f t="shared" si="35"/>
         <v>22.154000000000003</v>
       </c>
       <c r="U77">
-        <f>AVERAGE(U67:U76)</f>
+        <f t="shared" si="35"/>
         <v>34.521999999999991</v>
       </c>
       <c r="V77">
-        <f>AVERAGE(V67:V76)</f>
+        <f t="shared" si="35"/>
         <v>0.14000000000000004</v>
       </c>
       <c r="W77">
-        <f>AVERAGE(W67:W76)</f>
+        <f t="shared" si="35"/>
         <v>0.54</v>
       </c>
       <c r="X77">
-        <f>AVERAGE(X67:X76)</f>
+        <f t="shared" si="35"/>
         <v>5.7459999999999996</v>
       </c>
       <c r="Y77">
-        <f>AVERAGE(Y67:Y76)</f>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="Z77">
-        <f>AVERAGE(Z67:Z76)</f>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="AA77">
-        <f>AVERAGE(AA67:AA76)</f>
+        <f t="shared" si="35"/>
         <v>245804</v>
       </c>
     </row>
@@ -5238,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <f t="shared" ref="D78:AA78" si="28">STDEV(D67:D76)</f>
+        <f t="shared" ref="D78" si="36">STDEV(D67:D76)</f>
         <v>2.6793241270473011E-2</v>
       </c>
       <c r="E78">
@@ -5246,26 +9489,26 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <f t="shared" ref="G78:AA78" si="29">STDEV(G67:G76)</f>
+        <f t="shared" ref="G78:L78" si="37">STDEV(G67:G76)</f>
         <v>8.4004034294656194E-2</v>
       </c>
       <c r="H78">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>3.0953515327198495</v>
       </c>
       <c r="I78">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0.47333450704079838</v>
       </c>
       <c r="J78">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>5.6237350182556671</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M78">
@@ -5273,38 +9516,38 @@
         <v>2.7264140062237926E-2</v>
       </c>
       <c r="N78">
-        <f t="shared" ref="N78:AA78" si="30">STDEV(N67:N76)</f>
+        <f t="shared" ref="N78:P78" si="38">STDEV(N67:N76)</f>
         <v>0</v>
       </c>
       <c r="O78">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P78">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R78">
-        <f t="shared" ref="R78:AA78" si="31">STDEV(R67:R76)</f>
+        <f t="shared" ref="R78:W78" si="39">STDEV(R67:R76)</f>
         <v>7.5267006199411318E-2</v>
       </c>
       <c r="S78">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>2.0882262542380059</v>
       </c>
       <c r="T78">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0.84186565304553118</v>
       </c>
       <c r="U78">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>13.87544017319812</v>
       </c>
       <c r="V78">
         <v>0</v>
       </c>
       <c r="W78">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X78">
@@ -5312,15 +9555,15 @@
         <v>8.3692559074534462E-2</v>
       </c>
       <c r="Y78">
-        <f t="shared" ref="Y78:AA78" si="32">STDEV(Y67:Y76)</f>
+        <f t="shared" ref="Y78:AA78" si="40">STDEV(Y67:Y76)</f>
         <v>0</v>
       </c>
       <c r="Z78">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AA78">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -5347,36 +9590,36 @@
       <c r="A81" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="G81" s="4" t="s">
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="G81" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="R81" s="4" t="s">
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="R81" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
-      <c r="Z81" s="4"/>
-      <c r="AA81" s="4"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="8"/>
+      <c r="X81" s="8"/>
+      <c r="Y81" s="8"/>
+      <c r="Z81" s="8"/>
+      <c r="AA81" s="8"/>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
@@ -6227,99 +10470,99 @@
         <v>1</v>
       </c>
       <c r="B93">
-        <f t="shared" ref="B93" si="33">AVERAGE(B83:B92)</f>
+        <f t="shared" ref="B93" si="41">AVERAGE(B83:B92)</f>
         <v>27.875999999999998</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93" si="34">AVERAGE(C83:C92)</f>
+        <f t="shared" ref="C93" si="42">AVERAGE(C83:C92)</f>
         <v>0.14999999999999997</v>
       </c>
       <c r="D93">
-        <f t="shared" ref="D93" si="35">AVERAGE(D83:D92)</f>
+        <f t="shared" ref="D93" si="43">AVERAGE(D83:D92)</f>
         <v>1.5592999999999999</v>
       </c>
       <c r="E93">
-        <f t="shared" ref="E93" si="36">AVERAGE(E83:E92)</f>
+        <f t="shared" ref="E93" si="44">AVERAGE(E83:E92)</f>
         <v>245804</v>
       </c>
       <c r="G93">
-        <f>AVERAGE(G83:G92)</f>
+        <f t="shared" ref="G93:P93" si="45">AVERAGE(G83:G92)</f>
         <v>0.68700000000000006</v>
       </c>
       <c r="H93">
-        <f>AVERAGE(H83:H92)</f>
+        <f t="shared" si="45"/>
         <v>7.1840000000000002</v>
       </c>
       <c r="I93">
-        <f>AVERAGE(I83:I92)</f>
+        <f t="shared" si="45"/>
         <v>2.5170000000000003</v>
       </c>
       <c r="J93">
-        <f>AVERAGE(J83:J92)</f>
+        <f t="shared" si="45"/>
         <v>29.741000000000003</v>
       </c>
       <c r="K93">
-        <f>AVERAGE(K83:K92)</f>
+        <f t="shared" si="45"/>
         <v>0.14000000000000004</v>
       </c>
       <c r="L93">
-        <f>AVERAGE(L83:L92)</f>
+        <f t="shared" si="45"/>
         <v>0.54</v>
       </c>
       <c r="M93">
-        <f>AVERAGE(M83:M92)</f>
+        <f t="shared" si="45"/>
         <v>6.0489999999999995</v>
       </c>
       <c r="N93">
-        <f>AVERAGE(N83:N92)</f>
+        <f t="shared" si="45"/>
         <v>246051</v>
       </c>
       <c r="O93">
-        <f>AVERAGE(O83:O92)</f>
+        <f t="shared" si="45"/>
         <v>7</v>
       </c>
       <c r="P93">
-        <f>AVERAGE(P83:P92)</f>
+        <f t="shared" si="45"/>
         <v>245804</v>
       </c>
       <c r="R93">
-        <f>AVERAGE(R83:R92)</f>
+        <f t="shared" ref="R93:AA93" si="46">AVERAGE(R83:R92)</f>
         <v>1.762</v>
       </c>
       <c r="S93">
-        <f>AVERAGE(S83:S92)</f>
+        <f t="shared" si="46"/>
         <v>2.7109999999999994</v>
       </c>
       <c r="T93">
-        <f>AVERAGE(T83:T92)</f>
+        <f t="shared" si="46"/>
         <v>22.695</v>
       </c>
       <c r="U93">
-        <f>AVERAGE(U83:U92)</f>
+        <f t="shared" si="46"/>
         <v>41.210999999999999</v>
       </c>
       <c r="V93">
-        <f>AVERAGE(V83:V92)</f>
+        <f t="shared" si="46"/>
         <v>0.14000000000000004</v>
       </c>
       <c r="W93">
-        <f>AVERAGE(W83:W92)</f>
+        <f t="shared" si="46"/>
         <v>0.54</v>
       </c>
       <c r="X93">
-        <f>AVERAGE(X83:X92)</f>
+        <f t="shared" si="46"/>
         <v>6.2639999999999985</v>
       </c>
       <c r="Y93">
-        <f>AVERAGE(Y83:Y92)</f>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="Z93">
-        <f>AVERAGE(Z83:Z92)</f>
+        <f t="shared" si="46"/>
         <v>7</v>
       </c>
       <c r="AA93">
-        <f>AVERAGE(AA83:AA92)</f>
+        <f t="shared" si="46"/>
         <v>245804</v>
       </c>
     </row>
@@ -6335,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <f t="shared" ref="D94:AA94" si="37">STDEV(D83:D92)</f>
+        <f t="shared" ref="D94" si="47">STDEV(D83:D92)</f>
         <v>2.3527997506516966E-2</v>
       </c>
       <c r="E94">
@@ -6343,26 +10586,26 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" ref="G94:AA94" si="38">STDEV(G83:G92)</f>
+        <f t="shared" ref="G94:L94" si="48">STDEV(G83:G92)</f>
         <v>8.9122886448369187E-2</v>
       </c>
       <c r="H94">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>3.0511535159309449</v>
       </c>
       <c r="I94">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>1.1301922157068871</v>
       </c>
       <c r="J94">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>5.6681065817627507</v>
       </c>
       <c r="K94">
         <v>0</v>
       </c>
       <c r="L94">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="M94">
@@ -6370,38 +10613,38 @@
         <v>3.0349812373573634E-2</v>
       </c>
       <c r="N94">
-        <f t="shared" ref="N94:AA94" si="39">STDEV(N83:N92)</f>
+        <f t="shared" ref="N94:P94" si="49">STDEV(N83:N92)</f>
         <v>0</v>
       </c>
       <c r="O94">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="P94">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R94">
-        <f t="shared" ref="R94:AA94" si="40">STDEV(R83:R92)</f>
+        <f t="shared" ref="R94:W94" si="50">STDEV(R83:R92)</f>
         <v>3.9046980250291657E-2</v>
       </c>
       <c r="S94">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>0.73646980778425841</v>
       </c>
       <c r="T94">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>0.73749199619008987</v>
       </c>
       <c r="U94">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>17.945799539477502</v>
       </c>
       <c r="V94">
         <v>0</v>
       </c>
       <c r="W94">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="X94">
@@ -6409,24 +10652,34 @@
         <v>8.4327404271154968E-3</v>
       </c>
       <c r="Y94">
-        <f t="shared" ref="Y94:AA94" si="41">STDEV(Y83:Y92)</f>
+        <f t="shared" ref="Y94:AA94" si="51">STDEV(Y83:Y92)</f>
         <v>0</v>
       </c>
       <c r="Z94">
-        <f t="shared" si="41"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AA94">
-        <f t="shared" si="41"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="27">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="R12:S14"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="V12:W14"/>
+    <mergeCell ref="G17:P17"/>
+    <mergeCell ref="R17:AA17"/>
+    <mergeCell ref="G12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="K12:L14"/>
+    <mergeCell ref="M12:M14"/>
     <mergeCell ref="B81:E81"/>
     <mergeCell ref="G81:P81"/>
     <mergeCell ref="R81:AA81"/>
-    <mergeCell ref="A3:G5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="G6:P6"/>
     <mergeCell ref="R6:AA6"/>
@@ -6440,9 +10693,8 @@
     <mergeCell ref="G49:P49"/>
     <mergeCell ref="R49:AA49"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:P17"/>
-    <mergeCell ref="R17:AA17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Experiments/VoiceRecognition.xlsx
+++ b/Documentation/Experiments/VoiceRecognition.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="30">
   <si>
     <t>Iteration</t>
   </si>
@@ -96,16 +96,19 @@
     <t>Total Results</t>
   </si>
   <si>
-    <t>Diff in request time between local and not pre-processed</t>
-  </si>
-  <si>
-    <t>Diff in request time between local and pre-processed</t>
-  </si>
-  <si>
     <t>Diff in local CPU use between local and not pre-processed</t>
   </si>
   <si>
     <t>Diff in local CPU use between local and pre-processed</t>
+  </si>
+  <si>
+    <t>Increase  in request time between local and pre-processed</t>
+  </si>
+  <si>
+    <t>Decrease in request time between local and not pre-processed</t>
+  </si>
+  <si>
+    <t>Decrease in network utalisation</t>
   </si>
 </sst>
 </file>
@@ -149,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -168,9 +171,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -178,6 +178,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1094,6 +1100,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'Basic Word Bank'!$I$8</c:f>
@@ -1128,6 +1193,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'Basic Word Bank'!$T$8</c:f>
@@ -1147,8 +1271,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4645,8 +4770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:M7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4744,10 +4869,10 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -4770,38 +4895,38 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -5085,69 +5210,80 @@
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9">
         <f>(D8-G8)/G8</f>
         <v>0.42295621455796201</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10">
-        <f>(D8-R8)/R8</f>
-        <v>-0.15771152491635848</v>
-      </c>
-      <c r="R12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="9"/>
-      <c r="T12" s="10">
+      <c r="F12" s="8"/>
+      <c r="G12" s="9">
+        <f>(R8-D8)/D8</f>
+        <v>0.18724169875492752</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="11">
+        <f>(N8-Y8)/Y8</f>
+        <v>30755.375</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="8"/>
+      <c r="T12" s="9">
         <f>(H8-B8)/B8</f>
         <v>-0.80298171101672866</v>
       </c>
-      <c r="V12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="W12" s="9"/>
-      <c r="X12" s="10">
+      <c r="V12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="W12" s="8"/>
+      <c r="X12" s="9">
         <f>(S8-B8)/B8</f>
         <v>-0.89021553841264334</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="10"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="10"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="10"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="11"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="9"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="9"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="10"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="10"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="11"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="9"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="9"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5172,36 +5308,36 @@
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="G17" s="8" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="G17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="R17" s="8" t="s">
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="R17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
@@ -6297,36 +6433,36 @@
       <c r="A33" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="G33" s="8" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="G33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="R33" s="8" t="s">
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="R33" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
@@ -7395,36 +7531,36 @@
       <c r="A49" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="G49" s="8" t="s">
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="G49" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="R49" s="8" t="s">
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="R49" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="8"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
@@ -8493,36 +8629,36 @@
       <c r="A65" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="G65" s="8" t="s">
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="G65" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="R65" s="8" t="s">
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="R65" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
-      <c r="W65" s="8"/>
-      <c r="X65" s="8"/>
-      <c r="Y65" s="8"/>
-      <c r="Z65" s="8"/>
-      <c r="AA65" s="8"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
@@ -9590,36 +9726,36 @@
       <c r="A81" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="G81" s="8" t="s">
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="G81" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="R81" s="8" t="s">
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="R81" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-      <c r="U81" s="8"/>
-      <c r="V81" s="8"/>
-      <c r="W81" s="8"/>
-      <c r="X81" s="8"/>
-      <c r="Y81" s="8"/>
-      <c r="Z81" s="8"/>
-      <c r="AA81" s="8"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="7"/>
+      <c r="AA81" s="7"/>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
@@ -10665,18 +10801,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="R12:S14"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="V12:W14"/>
-    <mergeCell ref="G17:P17"/>
-    <mergeCell ref="R17:AA17"/>
-    <mergeCell ref="G12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="K12:L14"/>
-    <mergeCell ref="M12:M14"/>
+  <mergeCells count="29">
     <mergeCell ref="B81:E81"/>
     <mergeCell ref="G81:P81"/>
     <mergeCell ref="R81:AA81"/>
@@ -10693,6 +10818,19 @@
     <mergeCell ref="G49:P49"/>
     <mergeCell ref="R49:AA49"/>
     <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="R12:S14"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="V12:W14"/>
+    <mergeCell ref="G17:P17"/>
+    <mergeCell ref="R17:AA17"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="E12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Documentation/Experiments/VoiceRecognition.xlsx
+++ b/Documentation/Experiments/VoiceRecognition.xlsx
@@ -171,6 +171,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -178,9 +181,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4770,8 +4770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:K14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4869,10 +4869,10 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -4895,38 +4895,38 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -5210,80 +5210,80 @@
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10">
         <f>(D8-G8)/G8</f>
         <v>0.42295621455796201</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9">
+      <c r="F12" s="9"/>
+      <c r="G12" s="10">
         <f>(R8-D8)/D8</f>
         <v>0.18724169875492752</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="11">
         <f>(N8-Y8)/Y8</f>
         <v>30755.375</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="S12" s="8"/>
-      <c r="T12" s="9">
+      <c r="S12" s="9"/>
+      <c r="T12" s="10">
         <f>(H8-B8)/B8</f>
         <v>-0.80298171101672866</v>
       </c>
-      <c r="V12" s="8" t="s">
+      <c r="V12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="W12" s="8"/>
-      <c r="X12" s="9">
+      <c r="W12" s="9"/>
+      <c r="X12" s="10">
         <f>(S8-B8)/B8</f>
         <v>-0.89021553841264334</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="11"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="9"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="10"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="10"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="11"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="9"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="10"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5308,36 +5308,36 @@
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="G17" s="7" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="G17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="R17" s="7" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="R17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
@@ -6433,36 +6433,36 @@
       <c r="A33" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="G33" s="7" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="G33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="R33" s="7" t="s">
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="R33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
@@ -7531,36 +7531,36 @@
       <c r="A49" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="G49" s="7" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="G49" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="R49" s="7" t="s">
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="R49" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
-      <c r="Z49" s="7"/>
-      <c r="AA49" s="7"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
@@ -8629,36 +8629,36 @@
       <c r="A65" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="G65" s="7" t="s">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="G65" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="R65" s="7" t="s">
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="R65" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7"/>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="7"/>
-      <c r="Z65" s="7"/>
-      <c r="AA65" s="7"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
@@ -9726,36 +9726,36 @@
       <c r="A81" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="G81" s="7" t="s">
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="G81" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="R81" s="7" t="s">
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="R81" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S81" s="7"/>
-      <c r="T81" s="7"/>
-      <c r="U81" s="7"/>
-      <c r="V81" s="7"/>
-      <c r="W81" s="7"/>
-      <c r="X81" s="7"/>
-      <c r="Y81" s="7"/>
-      <c r="Z81" s="7"/>
-      <c r="AA81" s="7"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="8"/>
+      <c r="X81" s="8"/>
+      <c r="Y81" s="8"/>
+      <c r="Z81" s="8"/>
+      <c r="AA81" s="8"/>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
@@ -10802,6 +10802,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="R12:S14"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="V12:W14"/>
+    <mergeCell ref="G17:P17"/>
+    <mergeCell ref="R17:AA17"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="E12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:K14"/>
     <mergeCell ref="B81:E81"/>
     <mergeCell ref="G81:P81"/>
     <mergeCell ref="R81:AA81"/>
@@ -10818,19 +10831,6 @@
     <mergeCell ref="G49:P49"/>
     <mergeCell ref="R49:AA49"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="R12:S14"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="V12:W14"/>
-    <mergeCell ref="G17:P17"/>
-    <mergeCell ref="R17:AA17"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="E12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
